--- a/xlsx/行政管理_intext.xlsx
+++ b/xlsx/行政管理_intext.xlsx
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>行政部門</t>
+    <t>行政部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>技術</t>
+    <t>技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BA%8F</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
-    <t>科學方法</t>
+    <t>科学方法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9A%E5%8A%A1</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>組織結構</t>
+    <t>组织结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>行為</t>
+    <t>行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%98%E5%B7%A5</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E5%8B%B5</t>
   </si>
   <si>
-    <t>激勵</t>
+    <t>激励</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C</t>
@@ -155,31 +155,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>人力資源</t>
+    <t>人力资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97</t>
   </si>
   <si>
-    <t>預算</t>
+    <t>预算</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>會計</t>
+    <t>会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88</t>
   </si>
   <si>
-    <t>審計</t>
+    <t>审计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>環境</t>
+    <t>环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%B9%A6</t>
@@ -191,19 +191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A</t>
   </si>
   <si>
-    <t>資訊</t>
+    <t>资讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>倫理</t>
+    <t>伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8B%99%E5%93%A1</t>
   </si>
   <si>
-    <t>公務員</t>
+    <t>公务员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>科學管理</t>
+    <t>科学管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%80%A7</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>系統</t>
+    <t>系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%BE%B5</t>
   </si>
   <si>
-    <t>特徵</t>
+    <t>特征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6</t>
